--- a/knipex.xlsx
+++ b/knipex.xlsx
@@ -872,7 +872,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4003773022992</t>
+          <t>4003773034094</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -882,14 +882,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8801250-02-1.jpg</t>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8801300-01-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4003773034094</t>
+          <t>4003773022992</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8801300-01-1.jpg</t>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8801250-02-1.jpg</t>
         </is>
       </c>
     </row>

--- a/knipex.xlsx
+++ b/knipex.xlsx
@@ -355,15 +355,260 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>AWG</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Blade_length</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Capacities_for_nuts1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Capacities_for_nuts2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Capacity_double_bit_key</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Capacity_for_pipes_diameter</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Capacity_for_pipes_inches</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Capacity_half_moon</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Capacity_square</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Capacity_step_like_square</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Capacity_triangular</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Cutting_capacities_hard_wire</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Cutting_capacities_medium_hard_wire</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Cutting_capacities_soft_wire</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Cutting_capacity_copper_cable_multiple_stranded</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Cutting_capacity_copper_cable_multiple_stranded_diameter</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Cutting_edge_length_mm</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>EAN</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Handle</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Handles</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Insulation_standard</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>L3</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>No_of_crimping_positions</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Nominal_size</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Pliers</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Radius</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Range_of_Application</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Size_of_bore</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Stripping_capacities</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Stripping_capacities_diameter</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Stripping_capacities_for_coax_cable</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Stripping_capacities_round_cable</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Stripping_capacities_sq_mm</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Style1</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Style2</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Tips_diameter</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>W4</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Wire_stripping_value_for_conductors_and_strands</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Wire_stripping_value_for_data_cable</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>dimension_angle</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>img</t>
         </is>
@@ -372,32 +617,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t xml:space="preserve">20 - 10 </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0,5 - 6,0 mm²</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>4003773066927</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>250 mm</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>97 33 01</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>burnished</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>770 g</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/973301-01-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>RJ 11/12 (6-poles) 9.65 mm RJ 45 (8-poles) 11.68 mm</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>4003773043171</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>190 mm</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>97 51 10</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>burnished</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Western plugs</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>340 g</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/9751104k.jpg</t>
         </is>
@@ -406,15 +721,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t xml:space="preserve">20 - 10 </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0,5 - 6,0 mm²</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>4003773051893</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>220 mm</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>97 52 36</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>burnished</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>487 g</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/975236-00-3.jpg</t>
         </is>
@@ -423,15 +773,50 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t xml:space="preserve">28 - 5 </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0,08 - 10 + 16 mm²</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>4003773028017</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>97 53 04</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>burnished</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>405 g</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/975304-01-3.jpg</t>
         </is>
@@ -440,22 +825,57 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t xml:space="preserve">28 - 7 </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0,08 - 10,0 mm²</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>4003773041474</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>97 53 14</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>burnished</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>404 g</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/975314-01-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr">
+      <c r="AZ7" t="inlineStr">
         <is>
           <t>https://www.knipex.com/</t>
         </is>
@@ -464,15 +884,40 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t xml:space="preserve">24 - 10 </t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
           <t>4003773054573</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>12 62 180</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>0,2 - 6,0 mm²</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>0,2 - 6,0 mm²</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>151 g</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/1262180-00-3.jpg</t>
         </is>
@@ -481,644 +926,2149 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t xml:space="preserve">1/0 </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0,5 - 2,5 mm²</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>50 mm²</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>15 Ø mm</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
           <t>4003773075080</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>200 mm</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>13 82 200</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>black atramentized</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>280 g</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/1382200-01-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>4003773026709</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>fibreglass-reinforced polyamide</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>150 mm</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>16 40 150</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>&gt; 25 Ø mm</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>&gt; 25 Ø mm</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>210 g</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/1640150-00-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>4003773074670</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5 / 6 - 7 / 8 - 9 / 10 - 11 mm</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>92 mm</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>00 11 01</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>135 g</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/0011014k.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>4003773079927</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ø 8,0-13,0 mm</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>135 mm</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>16 95 01 SB</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>Ø 8,0-13,0 mm,8 - 13 Ø mm,4,8 - 7,5 Ø mm</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>4,8 - 7,5 Ø mm</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>8 - 13 Ø mm</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>74 g</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>8 - 13 Ø mm</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>CAT 5 - 7, Twisted pair (UTP/STP)</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/169501SB-00-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>25 mm</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>4003773013792</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>160 mm</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>68 01 160</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>black atramentized</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>202 g</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/68012004k.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>29 mm</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>4003773013808</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>68 01 180</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
         <is>
           <t>black atramentized</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>284 g</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/68011804k.jpg</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>31 mm</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
         <is>
           <t>4003773013815</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>200 mm</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>68 01 200</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
         <is>
           <t>black atramentized</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>319 g</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/68012004k.jpg</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>33 mm</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
         <is>
           <t>4003773077664</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>280 mm</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>68 01 280</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
         <is>
           <t>black atramentized</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>465 g</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/68012804k.jpg</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>4003773013402</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>polished</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>125 mm</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>70 01 125</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>black atramentized</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>80 g</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/7001125-00-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>4003773013426</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
         <is>
           <t>polished</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>160 mm</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>70 01 160</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>black atramentized</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>171 g</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/7001160-02-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>4003773034032</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
         <is>
           <t>polished</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>160 mm</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>70 02 160</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">160 mm </t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>black atramentized</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>206 g</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/7002160-02-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>4003773034049</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
         <is>
           <t>polished</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>70 02 180</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>black atramentized</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>252 g</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/7002180-00-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>4003773033165</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>200 mm</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>71 01 200</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
         <is>
           <t>black atramentized</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>335 g</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/7101200-02-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>30 mm</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
         <is>
           <t>4003773066750</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>grey atramentized,33 mm</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>460 mm</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>71 72 460</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>2100 g</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/7172460-00-3.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8,0 mm</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8,0 mm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14,0 mm</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2 Inch,52 mm</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2 Inch,52 mm</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>4003773082385</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>250 mm</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>86 01 250</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
         <is>
           <t>grey atramentized</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/7172460-00-3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>4003773082385</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>457 g</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8601250-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3,0 mm</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5,0 mm</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9,5 mm</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7/8 Inch,23 mm</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>7/8 Inch,23 mm</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>4003773077497</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>125 mm</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>86 03 125</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>chrome plated</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>105 g</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8603125-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4,7 mm</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7,0 mm</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10,5 mm</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1 Inch,27 mm</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1 Inch,27 mm</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>4003773069676</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>150 mm</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>86 03 150</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>chrome plated</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>175 g</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8603150-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5,0 mm</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8,0 mm</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12,0 mm</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1 1/2 Inch,40 mm</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1 1/2 Inch,40 mm</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>4003773035466</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>86 03 180</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180 mm </t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>chrome plated</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>254 g</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8603180-02-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8,0 mm</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8,0 mm</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14,0 mm</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2 Inch,52 mm</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2 Inch,52 mm</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>4003773033837</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>250 mm</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>86 03 250</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>chrome plated</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>536 g</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/print/8603250-04-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>12,5 mm</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16 mm</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20 mm</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3 3/8 Inch,85 mm</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3 3/8 Inch,85 mm</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>4003773077312</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>400 mm</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>86 03 400</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>chrome plated</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>1460 g</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8603400-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>30 mm</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>30 mm</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>32 Ø mm</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1 1/4 Ø Inch</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>4003773060116</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>150 mm</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>87 01 150</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
         <is>
           <t>grey atramentized</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8601250-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>4003773077497</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>145 g</t>
+        </is>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8701150-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>36 mm</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>36 mm</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>42 Ø mm</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1 1/2 Ø Inch</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>4003773022015</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>87 01 180</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180 mm </t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>grey atramentized</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>170 g</t>
+        </is>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8701180-01-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>46 mm</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>46 mm</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>50 Ø mm</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2 Ø Inch</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>4003773022022</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>250 mm</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>87 01 250</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250 mm </t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>grey atramentized</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>335 g</t>
+        </is>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8701250-01-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>46 mm</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>46 mm</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>50 Ø mm</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2 Ø Inch</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>4003773022992</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>250 mm</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>88 01 250</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250 mm </t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>black atramentized</t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>319 g</t>
+        </is>
+      </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8801250-02-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>60 mm</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>60 mm</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>70 Ø mm</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2 3/4 Ø Inch</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>4003773034094</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>300 mm</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>88 01 300</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">300 mm </t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>black atramentized</t>
+        </is>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>511 g</t>
+        </is>
+      </c>
+      <c r="AZ33" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8801300-01-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>4003773048527</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>140 mm</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>48 11 J1</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>grey atramentized</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>12 - 25 Ø mm</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>1 ,straight tips</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>1 ,straight tips</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>1,3 Ø mm</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>105 g</t>
+        </is>
+      </c>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/print/4811J2-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>4003773048534</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>48 11 J2</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>grey atramentized</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>19 - 60 Ø mm</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>1 ,straight tips</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>1 ,straight tips</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>1,8 Ø mm</t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>175 g</t>
+        </is>
+      </c>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/print/4811J2-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>4003773048640</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>165 mm</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>48 21 J21</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>grey atramentized</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>19 - 60 Ø mm</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>2 ,bent tips</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>2 ,bent tips</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>1,8 Ø mm</t>
+        </is>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>175 g</t>
+        </is>
+      </c>
+      <c r="AZ36" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/print/4821J21-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>4003773048657</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>210 mm</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>48 21 J31</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>grey atramentized</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>40 - 100 Ø mm</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>2,3 Ø mm</t>
+        </is>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>265 g</t>
+        </is>
+      </c>
+      <c r="AZ37" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/print/4821J31-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>4003773048732</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>49 11 A2</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>grey atramentized</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>1 ,straight tips</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>1 ,straight tips</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>1,8 Ø mm</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>170 g</t>
+        </is>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/4911A2-00-2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>4003773048831</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>with non-slip plastic coating</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>165 mm</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>49 21 A21</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>grey atramentized</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>2 ,bent tips</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>2 ,bent tips</t>
+        </is>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>1,8 Ø mm</t>
+        </is>
+      </c>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>169 g</t>
+        </is>
+      </c>
+      <c r="AZ39" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/4921A21-00-2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>4003773023166</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>50,0 mm</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>160 mm</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>25 02 160</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>black atramentized</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>9,0 mm</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>2,5 mm</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>16,5 mm</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>3,0 mm</t>
+        </is>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>144 g</t>
+        </is>
+      </c>
+      <c r="AZ40" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/2502160-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>4003773023142</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>73,0 mm</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>200 mm</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>26 12 200</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200 mm </t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>black atramentized</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>9,5 mm</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>2,5 mm</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>18,0 mm</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>3,0 mm</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>201 g</t>
+        </is>
+      </c>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/2612200-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>4003773022831</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>insulated with multi-component grips, VDE-tested</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEC 60900 DIN EN 60900</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>73,0 mm</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>200 mm</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>26 16 200</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200 mm </t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
         <is>
           <t>chrome plated</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8603125-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>4003773069676</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>chrome plated</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8603150-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>4003773035466</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>chrome plated</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8603180-02-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>4003773033837</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>chrome plated</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/print/8603250-04-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>4003773077312</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>chrome plated</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8603400-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>4003773060116</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>grey atramentized</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8701150-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>4003773022015</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>grey atramentized</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8701180-01-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>4003773022022</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>grey atramentized</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8701250-01-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>4003773034094</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>9,5 mm</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>2,5 mm</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>18,0 mm</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>3,0 mm</t>
+        </is>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>206 g</t>
+        </is>
+      </c>
+      <c r="AZ42" t="inlineStr">
+        <is>
+          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/2616200-00-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>4003773023135</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>polished</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>73,0 mm</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>23,0 mm</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>200 mm</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>26 22 200</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
         <is>
           <t>black atramentized</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8801300-01-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>4003773022992</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>black atramentized</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/8801250-02-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>4003773048527</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>grey atramentized</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/print/4811J2-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>4003773048534</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>grey atramentized</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/print/4811J2-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>4003773048640</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>grey atramentized</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/print/4821J21-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>4003773048657</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>grey atramentized</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/print/4821J31-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>4003773048732</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>grey atramentized</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/4911A2-00-2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>4003773048831</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>grey atramentized</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/4921A21-00-2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>4003773023166</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>polished</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/2502160-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>4003773023142</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>polished</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/2612200-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>4003773022831</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>chrome plated</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/2616200-00-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>4003773023135</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>polished</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>9,5 mm</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>2,5 mm</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>18 mm</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
+          <t>3,0 mm</t>
+        </is>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>197 g</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>40 °</t>
+        </is>
+      </c>
+      <c r="AZ43" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/2622200-00-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>50 mm</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
         <is>
           <t>4003773035565</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>insulating multi-component handle, VDE-tested</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEC 60900 DIN EN 60900</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>190 mm</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>98 52</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">185 mm </t>
+        </is>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>67 g</t>
+        </is>
+      </c>
+      <c r="AZ44" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/98524k.jpg</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>38 mm</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
         <is>
           <t>4003773022558</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>insulating multi-component handle, VDE-tested</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEC 60900 DIN EN 60900</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>98 55</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>23,5 mm</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>68 g</t>
+        </is>
+      </c>
+      <c r="AZ45" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/98554k.jpg</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>4003773052166</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>00 21 20</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
         <is>
           <t>7225 g</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="AZ46" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/002120-03-2.jpg</t>
         </is>
@@ -1127,44 +3077,169 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t xml:space="preserve">1/0 </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0,5 - 2,5 mm²</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>50 mm²</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>15 Ø mm</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
           <t>4003773075097</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>insulated with multi-component grips, VDE-tested</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEC 60900 DIN EN 60900</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>200 mm</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>13 86 200</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>chrome plated</t>
+        </is>
+      </c>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>280 g</t>
+        </is>
+      </c>
+      <c r="AZ47" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/1386200-01-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>4003773021995</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>insulated with multi-component grips, VDE-tested</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEC 60900 DIN EN 60900</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>160 mm</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>70 06 160</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">160 mm </t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
         <is>
           <t>chrome plated</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>216 g</t>
+        </is>
+      </c>
+      <c r="AZ48" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/7006160-02-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>4003773033813</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>insulated with multi-component grips, VDE-tested</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEC 60900 DIN EN 60900</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>180 mm</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>70 06 180</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
         <is>
           <t>chrome plated</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>254 g</t>
+        </is>
+      </c>
+      <c r="AZ49" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/7006180-01-1.jpg</t>
         </is>
@@ -1173,15 +3248,60 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t xml:space="preserve">1/0 </t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>50 mm²</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>15 Ø mm</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
           <t>4003773039648</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>chrome plated</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>insulated with multi-component grips, VDE-tested</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEC 60900 DIN EN 60900</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>165 mm</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>95 16 165</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>262 g</t>
+        </is>
+      </c>
+      <c r="AZ50" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/9516165-01-1.jpg</t>
         </is>
@@ -1190,15 +3310,55 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t xml:space="preserve">2/0 </t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>70 mm²</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>20 Ø mm</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
           <t>4003773026761</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>chrome plated</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>insulated with multi-component grips, VDE-tested</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IEC 60900 DIN EN 60900</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>200 mm</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>95 16 200</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200 mm </t>
+        </is>
+      </c>
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>340 g</t>
+        </is>
+      </c>
+      <c r="AZ51" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/9516200-01-1.jpg</t>
         </is>
@@ -1207,15 +3367,55 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t xml:space="preserve">1/0 </t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>50 mm²</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>15 Ø mm</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
           <t>4003773040323</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>burnished</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>plastic coated</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>165 mm</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>95 11 165</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AP52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>215 g</t>
+        </is>
+      </c>
+      <c r="AZ52" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/9511165-00-1.jpg</t>
         </is>
@@ -1224,15 +3424,55 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t xml:space="preserve">1/0 </t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>50 mm²</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>15 Ø mm</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
           <t>4003773029182</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>burnished</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>165 mm</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>95 12 165</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AP53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>250 g</t>
+        </is>
+      </c>
+      <c r="AZ53" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/9512165-00-1.jpg</t>
         </is>
@@ -1241,32 +3481,87 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t xml:space="preserve">2/0 </t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>70 mm²</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>20 Ø mm</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
           <t>4003773047834</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>burnished</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>200 mm</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>95 12 200</t>
+        </is>
+      </c>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>324 g</t>
+        </is>
+      </c>
+      <c r="AZ54" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/9512200-00-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>240 mm²</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>32 Ø mm</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
         <is>
           <t>4003773043935</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>black lacquered</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>with multi-component grips</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>250 mm</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>95 31 250</t>
+        </is>
+      </c>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>676 g</t>
+        </is>
+      </c>
+      <c r="AZ55" t="inlineStr">
         <is>
           <t>https://www.knipex.com/fileadmin/site/knipex/scripts/mediando/images/KNIPEX/Produktfotos/web/zoom/95312504k.jpg</t>
         </is>
